--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297229.6975687157</v>
+        <v>369983.3977341678</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11584090.12493443</v>
+        <v>11677947.28289453</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12319163.5382448</v>
+        <v>12432788.4356149</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7372165.317696995</v>
+        <v>7313914.556354716</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D11" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>116.9725659584295</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="V11" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>35.57325181372509</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
-        <v>156.101864113378</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.3447569806977</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>92.48398716522475</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>155.5029504629215</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>126.1060016440338</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>92.19829088764126</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>235.8715405415673</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>207.3985110975389</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.1305236342643</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.85808138005836</v>
+        <v>102.5977339160275</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>145.2557619025893</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1217957662153</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>12.16564159834933</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7608733896973</v>
+        <v>135.8463405373799</v>
       </c>
       <c r="H18" t="n">
-        <v>96.9504372659856</v>
+        <v>17.78327861040689</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.849104286628</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.7855636603532</v>
+        <v>194.1300562424599</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8372607800858</v>
+        <v>225.8428836187491</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.93955201291294</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>13.32000474262052</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.6641439831952</v>
+        <v>166.7357967687847</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2466565178402</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>216.454064125058</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>337.5414265800297</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>96.43945031610401</v>
+        <v>102.5977339160275</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>145.2557619025893</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1474152774909</v>
+        <v>210.8466665960478</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1090167586803</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>96.9504372659856</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.201552068168482</v>
       </c>
       <c r="S21" t="n">
-        <v>74.95367695456551</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>79.6142016646743</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8372607800858</v>
+        <v>225.8428836187491</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>35.69376671724199</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.8934760880603</v>
+        <v>202.1421887241982</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5825365451288</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2466565178402</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>127.0875194286955</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>212.099824100229</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>104.0981028465287</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705015</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.6945929587566</v>
       </c>
       <c r="G25" t="n">
-        <v>103.3387326418228</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.7486959972119</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>262.4364986551418</v>
+        <v>64.41341270977843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2651,7 +2651,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I27" t="n">
         <v>20.22295923705012</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>62.42750625282651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2772,7 +2772,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>98.1620065962027</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>246.7284719844539</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>109.3515271462404</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>111.5109739231594</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>73.99943686157403</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>237.3532270394426</v>
       </c>
       <c r="E32" t="n">
-        <v>94.87352909028087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.6581849802338</v>
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
         <v>192.0665623188214</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>151.5497626304653</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>100.6867690249414</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3325,16 +3325,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>347.0477697728342</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>67.50788663932322</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83156789269654</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3313074444629</v>
+        <v>105.5027752869404</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>6.457113113615669</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>170.2090520229105</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H39" t="n">
-        <v>92.83156789269742</v>
+        <v>92.83156789269654</v>
       </c>
       <c r="I39" t="n">
         <v>20.22295923705012</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>68.44022552803941</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.01186698971677</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>21.09877532957777</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>55.17793878914743</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
-        <v>92.83156789269742</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
         <v>20.22295923705012</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T42" t="n">
         <v>192.0665623188214</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>10.07675937572153</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>28.0165740938204</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>19.71143231606593</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>80.277460238196</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>153.7312730021085</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>136.8917226135564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C11" t="n">
-        <v>670.32375641013</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D11" t="n">
-        <v>403.9460998429521</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E11" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="F11" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G11" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I11" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P11" t="n">
         <v>1011.026904601763</v>
@@ -5068,25 +5068,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>936.7014129773081</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T11" t="n">
-        <v>936.7014129773081</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U11" t="n">
-        <v>936.7014129773081</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="V11" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="W11" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X11" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y11" t="n">
-        <v>670.32375641013</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>268.1158302633464</v>
+        <v>572.4823173146365</v>
       </c>
       <c r="C12" t="n">
-        <v>268.1158302633464</v>
+        <v>398.0292880335095</v>
       </c>
       <c r="D12" t="n">
-        <v>268.1158302633464</v>
+        <v>398.0292880335095</v>
       </c>
       <c r="E12" t="n">
-        <v>268.1158302633464</v>
+        <v>238.791833028054</v>
       </c>
       <c r="F12" t="n">
-        <v>121.5812722902314</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G12" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H12" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K12" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L12" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M12" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N12" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O12" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P12" t="n">
         <v>1026.524810789493</v>
@@ -5144,28 +5144,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S12" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T12" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U12" t="n">
-        <v>887.8833378166546</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V12" t="n">
-        <v>730.2046871970808</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="W12" t="n">
-        <v>475.9673304688792</v>
+        <v>572.4823173146365</v>
       </c>
       <c r="X12" t="n">
-        <v>268.1158302633464</v>
+        <v>572.4823173146365</v>
       </c>
       <c r="Y12" t="n">
-        <v>268.1158302633464</v>
+        <v>572.4823173146365</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.2726599955957</v>
+        <v>296.631170629683</v>
       </c>
       <c r="C13" t="n">
-        <v>488.2726599955957</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D13" t="n">
-        <v>338.15602058326</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E13" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F13" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G13" t="n">
-        <v>190.2429270008668</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H13" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I13" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M13" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P13" t="n">
         <v>1048.360858816803</v>
@@ -5226,25 +5226,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S13" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T13" t="n">
-        <v>848.0684854165361</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U13" t="n">
-        <v>754.6503165627737</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V13" t="n">
-        <v>754.6503165627737</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W13" t="n">
-        <v>488.2726599955957</v>
+        <v>296.631170629683</v>
       </c>
       <c r="X13" t="n">
-        <v>488.2726599955957</v>
+        <v>296.631170629683</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.2726599955957</v>
+        <v>296.631170629683</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="C14" t="n">
-        <v>522.1002068716687</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="D14" t="n">
-        <v>522.1002068716687</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="E14" t="n">
         <v>287.4747669672985</v>
@@ -5278,22 +5278,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K14" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M14" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P14" t="n">
         <v>1011.026904601763</v>
@@ -5314,16 +5314,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V14" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="W14" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="X14" t="n">
-        <v>1054.855520006025</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="Y14" t="n">
-        <v>788.4778634388467</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>178.1707977364049</v>
+        <v>432.4081544646065</v>
       </c>
       <c r="C15" t="n">
-        <v>21.0971104001205</v>
+        <v>432.4081544646065</v>
       </c>
       <c r="D15" t="n">
-        <v>21.0971104001205</v>
+        <v>432.4081544646065</v>
       </c>
       <c r="E15" t="n">
-        <v>21.0971104001205</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F15" t="n">
-        <v>21.0971104001205</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G15" t="n">
         <v>21.0971104001205</v>
@@ -5357,25 +5357,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J15" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K15" t="n">
-        <v>192.1295835699345</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L15" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M15" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N15" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O15" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P15" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q15" t="n">
         <v>1054.855520006025</v>
@@ -5396,13 +5396,13 @@
         <v>808.3837902496284</v>
       </c>
       <c r="W15" t="n">
-        <v>554.1464335214268</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="X15" t="n">
-        <v>554.1464335214268</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="Y15" t="n">
-        <v>346.3861347564729</v>
+        <v>600.6234914846746</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.0971104001205</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0971104001205</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0971104001205</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0971104001205</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F16" t="n">
         <v>21.0971104001205</v>
@@ -5439,10 +5439,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L16" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M16" t="n">
         <v>527.7368878375337</v>
@@ -5466,22 +5466,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T16" t="n">
-        <v>829.3864837640391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U16" t="n">
-        <v>563.0088271968611</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V16" t="n">
-        <v>469.8792404416679</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W16" t="n">
-        <v>469.8792404416679</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="X16" t="n">
-        <v>241.8896895436506</v>
+        <v>816.6014386509063</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.0971104001205</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>856.9170043001657</v>
+        <v>341.8452669847463</v>
       </c>
       <c r="C17" t="n">
-        <v>487.954487359754</v>
+        <v>341.8452669847463</v>
       </c>
       <c r="D17" t="n">
-        <v>487.954487359754</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="E17" t="n">
-        <v>487.954487359754</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="F17" t="n">
-        <v>487.954487359754</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="G17" t="n">
-        <v>78.73173621403242</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="H17" t="n">
-        <v>78.73173621403242</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="I17" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J17" t="n">
-        <v>101.716938794335</v>
+        <v>84.6022903242698</v>
       </c>
       <c r="K17" t="n">
-        <v>256.3279300428649</v>
+        <v>219.097252786106</v>
       </c>
       <c r="L17" t="n">
-        <v>485.0382981836568</v>
+        <v>422.8519084360616</v>
       </c>
       <c r="M17" t="n">
-        <v>771.192087954497</v>
+        <v>681.2376596098354</v>
       </c>
       <c r="N17" t="n">
-        <v>1066.589953587239</v>
+        <v>948.4181707504197</v>
       </c>
       <c r="O17" t="n">
-        <v>1332.190520359509</v>
+        <v>1187.373889825715</v>
       </c>
       <c r="P17" t="n">
-        <v>1524.3734583544</v>
+        <v>1356.816066761575</v>
       </c>
       <c r="Q17" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="R17" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="S17" t="n">
-        <v>1620.522094537057</v>
+        <v>1289.164346630336</v>
       </c>
       <c r="T17" t="n">
-        <v>1620.522094537057</v>
+        <v>1289.164346630336</v>
       </c>
       <c r="U17" t="n">
-        <v>1620.522094537057</v>
+        <v>1035.505967068502</v>
       </c>
       <c r="V17" t="n">
-        <v>1620.522094537057</v>
+        <v>704.4430797249314</v>
       </c>
       <c r="W17" t="n">
-        <v>1620.522094537057</v>
+        <v>704.4430797249314</v>
       </c>
       <c r="X17" t="n">
-        <v>1247.056336275977</v>
+        <v>341.8452669847463</v>
       </c>
       <c r="Y17" t="n">
-        <v>856.9170043001657</v>
+        <v>341.8452669847463</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>585.5329116915664</v>
+        <v>381.3680537284325</v>
       </c>
       <c r="C18" t="n">
-        <v>573.2443848245468</v>
+        <v>381.3680537284325</v>
       </c>
       <c r="D18" t="n">
-        <v>573.2443848245468</v>
+        <v>381.3680537284325</v>
       </c>
       <c r="E18" t="n">
-        <v>414.0069298190914</v>
+        <v>222.130598722977</v>
       </c>
       <c r="F18" t="n">
-        <v>267.4723718459763</v>
+        <v>222.130598722977</v>
       </c>
       <c r="G18" t="n">
-        <v>130.3401765028478</v>
+        <v>84.91207292764375</v>
       </c>
       <c r="H18" t="n">
-        <v>32.41044189074115</v>
+        <v>66.94916524036407</v>
       </c>
       <c r="I18" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J18" t="n">
-        <v>54.87106969249258</v>
+        <v>43.18435110608475</v>
       </c>
       <c r="K18" t="n">
-        <v>424.1393654449839</v>
+        <v>177.6869144696158</v>
       </c>
       <c r="L18" t="n">
-        <v>627.1691794966908</v>
+        <v>533.0690307362712</v>
       </c>
       <c r="M18" t="n">
-        <v>883.4522643696366</v>
+        <v>767.9132438968961</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.927044820797</v>
+        <v>1023.381729494864</v>
       </c>
       <c r="O18" t="n">
-        <v>1392.542464636424</v>
+        <v>1234.86568879849</v>
       </c>
       <c r="P18" t="n">
-        <v>1559.101192371296</v>
+        <v>1385.267144651572</v>
       </c>
       <c r="Q18" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="R18" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="S18" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="T18" t="n">
-        <v>1424.779100940741</v>
+        <v>1239.796372549658</v>
       </c>
       <c r="U18" t="n">
-        <v>1196.660655708331</v>
+        <v>1011.672247682235</v>
       </c>
       <c r="V18" t="n">
-        <v>961.5085474765883</v>
+        <v>1011.672247682235</v>
       </c>
       <c r="W18" t="n">
-        <v>961.5085474765883</v>
+        <v>757.4348909540333</v>
       </c>
       <c r="X18" t="n">
-        <v>961.5085474765883</v>
+        <v>549.5833907485005</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.7482487116345</v>
+        <v>549.5833907485005</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.6711556581799</v>
+        <v>505.3953348305436</v>
       </c>
       <c r="C19" t="n">
-        <v>348.6711556581799</v>
+        <v>491.9407845854723</v>
       </c>
       <c r="D19" t="n">
-        <v>348.6711556581799</v>
+        <v>491.9407845854723</v>
       </c>
       <c r="E19" t="n">
-        <v>200.7580620757868</v>
+        <v>344.0276910030792</v>
       </c>
       <c r="F19" t="n">
-        <v>200.7580620757868</v>
+        <v>197.1377435051689</v>
       </c>
       <c r="G19" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="H19" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="I19" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J19" t="n">
-        <v>32.85404199605989</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="K19" t="n">
-        <v>163.4198499512545</v>
+        <v>151.0420513257074</v>
       </c>
       <c r="L19" t="n">
-        <v>386.025566502515</v>
+        <v>363.1014809771847</v>
       </c>
       <c r="M19" t="n">
-        <v>631.1212060757687</v>
+        <v>597.0775397131531</v>
       </c>
       <c r="N19" t="n">
-        <v>875.823635577514</v>
+        <v>830.9247871564386</v>
       </c>
       <c r="O19" t="n">
-        <v>1085.829639943799</v>
+        <v>1030.904273929607</v>
       </c>
       <c r="P19" t="n">
-        <v>1242.005374108605</v>
+        <v>1178.500590159063</v>
       </c>
       <c r="Q19" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="R19" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="S19" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="T19" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="U19" t="n">
-        <v>977.560240176697</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="V19" t="n">
-        <v>722.8757519708101</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="W19" t="n">
-        <v>433.4585819338495</v>
+        <v>907.8363788043134</v>
       </c>
       <c r="X19" t="n">
-        <v>433.4585819338495</v>
+        <v>907.8363788043134</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.4585819338495</v>
+        <v>687.0437996607833</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>470.7749640080479</v>
+        <v>857.547446912047</v>
       </c>
       <c r="C20" t="n">
-        <v>470.7749640080479</v>
+        <v>494.9496341718618</v>
       </c>
       <c r="D20" t="n">
-        <v>470.7749640080479</v>
+        <v>494.9496341718618</v>
       </c>
       <c r="E20" t="n">
-        <v>470.7749640080479</v>
+        <v>494.9496341718618</v>
       </c>
       <c r="F20" t="n">
-        <v>129.824028068624</v>
+        <v>494.9496341718618</v>
       </c>
       <c r="G20" t="n">
-        <v>129.824028068624</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="H20" t="n">
-        <v>129.824028068624</v>
+        <v>132.3518214316767</v>
       </c>
       <c r="I20" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J20" t="n">
-        <v>101.7169387943343</v>
+        <v>84.6022903242698</v>
       </c>
       <c r="K20" t="n">
-        <v>256.3279300428646</v>
+        <v>219.097252786106</v>
       </c>
       <c r="L20" t="n">
-        <v>485.0382981836567</v>
+        <v>422.8519084360616</v>
       </c>
       <c r="M20" t="n">
-        <v>771.192087954497</v>
+        <v>681.2376596098354</v>
       </c>
       <c r="N20" t="n">
-        <v>1066.589953587239</v>
+        <v>948.4181707504198</v>
       </c>
       <c r="O20" t="n">
-        <v>1332.190520359509</v>
+        <v>1187.373889825715</v>
       </c>
       <c r="P20" t="n">
-        <v>1524.3734583544</v>
+        <v>1356.816066761575</v>
       </c>
       <c r="Q20" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="R20" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="S20" t="n">
-        <v>1620.522094537057</v>
+        <v>1289.164346630336</v>
       </c>
       <c r="T20" t="n">
-        <v>1408.251978095147</v>
+        <v>1076.187915725237</v>
       </c>
       <c r="U20" t="n">
-        <v>1154.606506621733</v>
+        <v>1076.187915725237</v>
       </c>
       <c r="V20" t="n">
-        <v>823.5436192781621</v>
+        <v>1076.187915725237</v>
       </c>
       <c r="W20" t="n">
-        <v>470.7749640080479</v>
+        <v>1076.187915725237</v>
       </c>
       <c r="X20" t="n">
-        <v>470.7749640080479</v>
+        <v>1076.187915725237</v>
       </c>
       <c r="Y20" t="n">
-        <v>470.7749640080479</v>
+        <v>1076.187915725237</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>451.3277637570899</v>
+        <v>508.9427890287202</v>
       </c>
       <c r="C21" t="n">
-        <v>276.8747344759628</v>
+        <v>334.4897597475932</v>
       </c>
       <c r="D21" t="n">
-        <v>276.8747344759628</v>
+        <v>334.4897597475932</v>
       </c>
       <c r="E21" t="n">
-        <v>276.8747344759628</v>
+        <v>175.2523047421377</v>
       </c>
       <c r="F21" t="n">
-        <v>130.3401765028478</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="G21" t="n">
-        <v>130.3401765028478</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="H21" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="I21" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J21" t="n">
-        <v>99.61923547221419</v>
+        <v>43.18435110608475</v>
       </c>
       <c r="K21" t="n">
-        <v>216.1628505864932</v>
+        <v>146.0649068498856</v>
       </c>
       <c r="L21" t="n">
-        <v>419.1926646382001</v>
+        <v>330.723051451732</v>
       </c>
       <c r="M21" t="n">
-        <v>675.475749511146</v>
+        <v>565.567264612357</v>
       </c>
       <c r="N21" t="n">
-        <v>952.9505299623065</v>
+        <v>821.0357502103252</v>
       </c>
       <c r="O21" t="n">
-        <v>1184.565949777933</v>
+        <v>1032.519709513951</v>
       </c>
       <c r="P21" t="n">
-        <v>1351.124677512806</v>
+        <v>1182.921165367033</v>
       </c>
       <c r="Q21" t="n">
-        <v>1620.522094537057</v>
+        <v>1435.887338451133</v>
       </c>
       <c r="R21" t="n">
-        <v>1620.522094537057</v>
+        <v>1428.613043432781</v>
       </c>
       <c r="S21" t="n">
-        <v>1544.811309734466</v>
+        <v>1428.613043432781</v>
       </c>
       <c r="T21" t="n">
-        <v>1544.811309734466</v>
+        <v>1348.194657912908</v>
       </c>
       <c r="U21" t="n">
-        <v>1316.692864502056</v>
+        <v>1120.070533045485</v>
       </c>
       <c r="V21" t="n">
-        <v>1081.540756270313</v>
+        <v>884.9184248137421</v>
       </c>
       <c r="W21" t="n">
-        <v>827.3033995421117</v>
+        <v>884.9184248137421</v>
       </c>
       <c r="X21" t="n">
-        <v>827.3033995421117</v>
+        <v>884.9184248137421</v>
       </c>
       <c r="Y21" t="n">
-        <v>619.5431007771579</v>
+        <v>677.1581260487883</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>646.2663053112873</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="C22" t="n">
-        <v>477.3301223833804</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="D22" t="n">
-        <v>327.2134829710446</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="E22" t="n">
-        <v>179.3003893886515</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="F22" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="G22" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="H22" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="I22" t="n">
-        <v>32.41044189074115</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="J22" t="n">
-        <v>32.85404199605991</v>
+        <v>28.71774676902266</v>
       </c>
       <c r="K22" t="n">
-        <v>163.4198499512545</v>
+        <v>151.0420513257074</v>
       </c>
       <c r="L22" t="n">
-        <v>386.0255665025151</v>
+        <v>363.1014809771847</v>
       </c>
       <c r="M22" t="n">
-        <v>631.1212060757688</v>
+        <v>597.0775397131531</v>
       </c>
       <c r="N22" t="n">
-        <v>875.8236355775141</v>
+        <v>830.9247871564386</v>
       </c>
       <c r="O22" t="n">
-        <v>1085.829639943799</v>
+        <v>1030.904273929607</v>
       </c>
       <c r="P22" t="n">
-        <v>1242.005374108605</v>
+        <v>1178.500590159063</v>
       </c>
       <c r="Q22" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="R22" t="n">
-        <v>1266.698277063404</v>
+        <v>1197.253548841274</v>
       </c>
       <c r="S22" t="n">
-        <v>1063.775573944152</v>
+        <v>993.0695198269325</v>
       </c>
       <c r="T22" t="n">
-        <v>1063.775573944152</v>
+        <v>768.2386748318529</v>
       </c>
       <c r="U22" t="n">
-        <v>774.6375370574443</v>
+        <v>768.2386748318529</v>
       </c>
       <c r="V22" t="n">
-        <v>774.6375370574443</v>
+        <v>513.5541866259661</v>
       </c>
       <c r="W22" t="n">
-        <v>646.2663053112873</v>
+        <v>513.5541866259661</v>
       </c>
       <c r="X22" t="n">
-        <v>646.2663053112873</v>
+        <v>285.5646357279487</v>
       </c>
       <c r="Y22" t="n">
-        <v>646.2663053112873</v>
+        <v>64.77205658441861</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1158.553337363321</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="C23" t="n">
-        <v>1158.553337363321</v>
+        <v>1300.799627451883</v>
       </c>
       <c r="D23" t="n">
-        <v>1158.553337363321</v>
+        <v>942.533928845133</v>
       </c>
       <c r="E23" t="n">
-        <v>944.3110907974335</v>
+        <v>942.533928845133</v>
       </c>
       <c r="F23" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G23" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H23" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6019,22 +6019,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.758267664335</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W23" t="n">
-        <v>2308.758267664335</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X23" t="n">
-        <v>1935.292509403255</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="Y23" t="n">
-        <v>1545.153177427443</v>
+        <v>1669.762144392295</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I24" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M24" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N24" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O24" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q24" t="n">
         <v>2562.339328400155</v>
@@ -6101,16 +6101,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="C25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="D25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="E25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="F25" t="n">
-        <v>155.6293447920665</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
         <v>1636.446120074497</v>
@@ -6174,25 +6174,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329314</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V25" t="n">
-        <v>673.0360657270445</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900839</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.6293447920665</v>
+        <v>352.2580926322059</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1126.761759316041</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="C26" t="n">
-        <v>1126.761759316041</v>
+        <v>1342.443190455021</v>
       </c>
       <c r="D26" t="n">
-        <v>768.4960607092901</v>
+        <v>984.1774918482706</v>
       </c>
       <c r="E26" t="n">
-        <v>382.7078081110458</v>
+        <v>598.3892392500263</v>
       </c>
       <c r="F26" t="n">
-        <v>117.6204357321147</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G26" t="n">
         <v>117.6204357321147</v>
@@ -6223,55 +6223,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T26" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U26" t="n">
-        <v>2184.059060190805</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V26" t="n">
-        <v>1852.996172847234</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W26" t="n">
-        <v>1500.22751757712</v>
+        <v>2084.871465656513</v>
       </c>
       <c r="X26" t="n">
-        <v>1126.761759316041</v>
+        <v>1711.405707395433</v>
       </c>
       <c r="Y26" t="n">
-        <v>1126.761759316041</v>
+        <v>1711.405707395433</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756896</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K27" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380237</v>
       </c>
       <c r="L27" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M27" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N27" t="n">
-        <v>1739.316620925522</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O27" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.2476435302233</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C28" t="n">
-        <v>411.3114606023164</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D28" t="n">
-        <v>261.1948211899806</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E28" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I28" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J28" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020476</v>
@@ -6420,16 +6420,16 @@
         <v>1124.349301773071</v>
       </c>
       <c r="V28" t="n">
-        <v>869.6648135671838</v>
+        <v>1025.195759756704</v>
       </c>
       <c r="W28" t="n">
-        <v>580.2476435302233</v>
+        <v>735.7785897197436</v>
       </c>
       <c r="X28" t="n">
-        <v>580.2476435302233</v>
+        <v>735.7785897197436</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.2476435302233</v>
+        <v>514.9860105762135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1373.778212738967</v>
+        <v>597.0390406990318</v>
       </c>
       <c r="C29" t="n">
-        <v>1124.557533966791</v>
+        <v>228.0765237586201</v>
       </c>
       <c r="D29" t="n">
-        <v>766.2918353600404</v>
+        <v>228.0765237586201</v>
       </c>
       <c r="E29" t="n">
-        <v>766.2918353600404</v>
+        <v>228.0765237586201</v>
       </c>
       <c r="F29" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G29" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
         <v>1656.671415230817</v>
@@ -6481,34 +6481,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.593687005981</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U29" t="n">
-        <v>2100.012626270161</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V29" t="n">
-        <v>2100.012626270161</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W29" t="n">
-        <v>1747.243971000046</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X29" t="n">
-        <v>1373.778212738967</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y29" t="n">
-        <v>1373.778212738967</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F30" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>684.9695361605189</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L30" t="n">
-        <v>1092.885047004313</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M30" t="n">
-        <v>1456.147065963533</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O30" t="n">
-        <v>2175.50262973664</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.2996089082458</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C31" t="n">
-        <v>201.3634259803389</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D31" t="n">
-        <v>51.24678656800313</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020476</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V31" t="n">
-        <v>673.036065727045</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W31" t="n">
-        <v>598.2891598062631</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X31" t="n">
-        <v>370.2996089082458</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.2996089082458</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1291.481876182946</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="C32" t="n">
-        <v>1291.481876182946</v>
+        <v>1047.218566716064</v>
       </c>
       <c r="D32" t="n">
-        <v>933.2161775761958</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E32" t="n">
-        <v>837.3843300102556</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F32" t="n">
-        <v>837.3843300102556</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G32" t="n">
         <v>421.6795797345444</v>
@@ -6703,16 +6703,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
         <v>2055.228484740841</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.313418796631</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.25053145306</v>
+        <v>1768.94973892659</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182946</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.481876182946</v>
+        <v>1416.181083656476</v>
       </c>
       <c r="Y32" t="n">
-        <v>1291.481876182946</v>
+        <v>1416.181083656476</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>590.2049751143506</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L33" t="n">
-        <v>884.9085321458224</v>
+        <v>1092.885047004313</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963533</v>
       </c>
       <c r="N33" t="n">
-        <v>1635.455679701988</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P33" t="n">
-        <v>2214.708848710447</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q33" t="n">
         <v>2538.001278676483</v>
@@ -6806,25 +6806,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T33" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V33" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.0891146802707</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="C34" t="n">
-        <v>664.1529317523638</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="D34" t="n">
-        <v>514.036292340028</v>
+        <v>204.3273548816044</v>
       </c>
       <c r="E34" t="n">
-        <v>366.1231987576349</v>
+        <v>204.3273548816044</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>204.3273548816044</v>
       </c>
       <c r="G34" t="n">
         <v>51.24678656800313</v>
@@ -6882,28 +6882,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>1235.53015865404</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>1235.53015865404</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W34" t="n">
-        <v>1235.53015865404</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X34" t="n">
-        <v>1235.53015865404</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y34" t="n">
-        <v>1014.73757951051</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1189.460906904773</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="C35" t="n">
-        <v>820.4983899643612</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="D35" t="n">
-        <v>462.2326913576107</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E35" t="n">
         <v>462.2326913576107</v>
       </c>
       <c r="F35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O35" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P35" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q35" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R35" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T35" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W35" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.760115995789</v>
       </c>
       <c r="X35" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.760115995789</v>
       </c>
       <c r="Y35" t="n">
-        <v>1576.060746968895</v>
+        <v>1234.620784019977</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756901</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J36" t="n">
-        <v>168.00081891452</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380228</v>
+        <v>614.5430248380237</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694945</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O36" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R36" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>621.5776595052479</v>
+        <v>157.8152464538015</v>
       </c>
       <c r="C37" t="n">
-        <v>452.641476577341</v>
+        <v>157.8152464538015</v>
       </c>
       <c r="D37" t="n">
-        <v>302.5248371650052</v>
+        <v>157.8152464538015</v>
       </c>
       <c r="E37" t="n">
-        <v>154.6117435826121</v>
+        <v>157.8152464538015</v>
       </c>
       <c r="F37" t="n">
-        <v>154.6117435826121</v>
+        <v>157.8152464538015</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J37" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020476</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U37" t="n">
-        <v>1347.327782578335</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V37" t="n">
-        <v>1092.643294372448</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W37" t="n">
-        <v>803.2261243354876</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X37" t="n">
-        <v>803.2261243354876</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.2261243354876</v>
+        <v>157.8152464538015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>784.997338593565</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="C38" t="n">
-        <v>416.0348216531533</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D38" t="n">
-        <v>57.7691230464028</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E38" t="n">
-        <v>57.7691230464028</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F38" t="n">
-        <v>57.7691230464028</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G38" t="n">
-        <v>57.7691230464028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K38" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V38" t="n">
-        <v>1897.831592188881</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="W38" t="n">
-        <v>1545.062936918767</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="X38" t="n">
-        <v>1171.597178657687</v>
+        <v>2012.130724814128</v>
       </c>
       <c r="Y38" t="n">
-        <v>1171.597178657687</v>
+        <v>1621.991392838317</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148806</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F39" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182532</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0008189145209</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380237</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694955</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828716</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.793729425661</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
         <v>1991.864164601822</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>383.6188956900843</v>
+        <v>538.2860735999672</v>
       </c>
       <c r="C40" t="n">
-        <v>383.6188956900843</v>
+        <v>369.3498906720603</v>
       </c>
       <c r="D40" t="n">
-        <v>233.5022562777486</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E40" t="n">
-        <v>233.5022562777486</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F40" t="n">
-        <v>86.61230877983826</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020476</v>
@@ -7356,28 +7356,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S40" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T40" t="n">
-        <v>1216.838891429094</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U40" t="n">
-        <v>927.7205539329318</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V40" t="n">
-        <v>673.036065727045</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W40" t="n">
-        <v>383.6188956900843</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X40" t="n">
-        <v>383.6188956900843</v>
+        <v>828.2101936809108</v>
       </c>
       <c r="Y40" t="n">
-        <v>383.6188956900843</v>
+        <v>607.4176145373807</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1660.900948886693</v>
+        <v>1966.993846941859</v>
       </c>
       <c r="C41" t="n">
-        <v>1291.938431946282</v>
+        <v>1598.031330001447</v>
       </c>
       <c r="D41" t="n">
-        <v>933.6727333395313</v>
+        <v>1239.765631394697</v>
       </c>
       <c r="E41" t="n">
-        <v>933.6727333395313</v>
+        <v>853.9773787964527</v>
       </c>
       <c r="F41" t="n">
-        <v>522.6868285499238</v>
+        <v>442.9914740068452</v>
       </c>
       <c r="G41" t="n">
-        <v>106.9820782742127</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9820782742127</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
         <v>51.24678656800313</v>
@@ -7414,19 +7414,19 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P41" t="n">
         <v>2360.886721764998</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T41" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V41" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="W41" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="X41" t="n">
-        <v>2437.640120926627</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="Y41" t="n">
-        <v>2047.500788950815</v>
+        <v>2353.593687005981</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
         <v>71.67401812057901</v>
@@ -7490,25 +7490,25 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>560.1394111735142</v>
+        <v>507.2413987429766</v>
       </c>
       <c r="L42" t="n">
-        <v>854.8429682049859</v>
+        <v>801.9449557744483</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828716</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.793729425661</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q42" t="n">
         <v>2562.339328400156</v>
@@ -7517,25 +7517,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S42" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.2996089082458</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C43" t="n">
-        <v>201.3634259803389</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D43" t="n">
-        <v>51.24678656800313</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E43" t="n">
         <v>51.24678656800313</v>
@@ -7611,10 +7611,10 @@
         <v>580.2476435302233</v>
       </c>
       <c r="X43" t="n">
-        <v>551.9480737384855</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y43" t="n">
-        <v>551.9480737384855</v>
+        <v>359.4550643866932</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1206.346846950667</v>
+        <v>1214.090290083872</v>
       </c>
       <c r="C44" t="n">
-        <v>837.3843300102556</v>
+        <v>845.1277731434607</v>
       </c>
       <c r="D44" t="n">
-        <v>837.3843300102556</v>
+        <v>486.8620745367102</v>
       </c>
       <c r="E44" t="n">
-        <v>837.3843300102556</v>
+        <v>486.8620745367102</v>
       </c>
       <c r="F44" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U44" t="n">
-        <v>2356.551777251681</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V44" t="n">
-        <v>2356.551777251681</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W44" t="n">
-        <v>2356.551777251681</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X44" t="n">
-        <v>1983.086018990601</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y44" t="n">
-        <v>1592.946687014789</v>
+        <v>1214.090290083872</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380228</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694945</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601822</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7760,16 +7760,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C46" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
         <v>248.4064713020476</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U46" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V46" t="n">
-        <v>789.4460866465112</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W46" t="n">
-        <v>500.0289166095505</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X46" t="n">
-        <v>272.0393657115332</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.24678656800311</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.06191329280011</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K2" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L2" t="n">
-        <v>70.31665934305323</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M2" t="n">
-        <v>46.25150133729363</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N2" t="n">
-        <v>42.33948647951536</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O2" t="n">
-        <v>53.44993733213093</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P2" t="n">
-        <v>80.46778072209531</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q2" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>73.83937108913167</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K3" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L3" t="n">
-        <v>16.75508344424118</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26.85597970277001</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q3" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.37427626277801</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L4" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M4" t="n">
-        <v>65.20591187910269</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N4" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O4" t="n">
-        <v>71.98338581476828</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P4" t="n">
-        <v>80.84873837615825</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>92.06191329280011</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K5" t="n">
-        <v>86.72591490550931</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L5" t="n">
-        <v>70.31665934305323</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M5" t="n">
-        <v>46.25150133729363</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N5" t="n">
-        <v>42.33948647951536</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O5" t="n">
-        <v>53.44993733213093</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P5" t="n">
-        <v>80.46778072209531</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.0872921559756</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.83937108913167</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K6" t="n">
-        <v>47.25897875440141</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L6" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>26.85597970277001</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.37594193669796</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>74.37427626277801</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L7" t="n">
-        <v>64.96559098237566</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M7" t="n">
-        <v>65.20591187910269</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N7" t="n">
-        <v>55.71856618250388</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O7" t="n">
-        <v>71.98338581476828</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P7" t="n">
-        <v>80.84873837615825</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>85.97480228639998</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K8" t="n">
-        <v>77.60291342766286</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L8" t="n">
-        <v>58.99876929881117</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M8" t="n">
-        <v>33.65816793912805</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N8" t="n">
-        <v>29.54237978104271</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O8" t="n">
-        <v>41.36599235998582</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P8" t="n">
-        <v>70.15441326031711</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.3423827029069</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>70.21392947460487</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K9" t="n">
-        <v>41.06252158333071</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L9" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>19.5283497406852</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.47761536183195</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>70.6365977934563</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L10" t="n">
-        <v>60.18264937930154</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M10" t="n">
-        <v>60.16297057655852</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N10" t="n">
-        <v>50.7955347526062</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O10" t="n">
-        <v>67.4361694735309</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P10" t="n">
-        <v>76.9578092403323</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>29.77809400872286</v>
+        <v>39.81221065961947</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>255.2774551901135</v>
+        <v>31.94142183811124</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>172.4484562270798</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.77809400872283</v>
+        <v>39.81221065961947</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>45.20016745426422</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>204.3898780651909</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>105.1672460959146</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L30" t="n">
-        <v>114.3555089013357</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780652</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>240.4465442417446</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>54.95314511566615</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>84.94186588374794</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>54.95314511566613</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>20.93778120154988</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.9556134883061986</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H2" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I2" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S2" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H3" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I3" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S3" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T3" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I4" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J4" t="n">
-        <v>60.10977774604451</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.78178798155719</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R4" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S4" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T4" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H5" t="n">
-        <v>328.737591844935</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I5" t="n">
-        <v>170.0563803341062</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>84.01082088999308</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S5" t="n">
-        <v>185.1290231762283</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T5" t="n">
-        <v>218.5063572696783</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H6" t="n">
-        <v>106.817768233445</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I6" t="n">
-        <v>70.08293774516886</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.32921403493339</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S6" t="n">
-        <v>161.2636171197674</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T6" t="n">
-        <v>197.9036731785617</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H7" t="n">
-        <v>158.0458795257661</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I7" t="n">
-        <v>141.3076148215571</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J7" t="n">
-        <v>60.10977774604451</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.78178798155719</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R7" t="n">
-        <v>156.1475068297698</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S7" t="n">
-        <v>215.8207507508087</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T7" t="n">
-        <v>225.9361746006879</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.1825902111655</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H8" t="n">
-        <v>328.0030935389889</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I8" t="n">
-        <v>167.2914106341195</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.50566485817191</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S8" t="n">
-        <v>183.494712897039</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T8" t="n">
-        <v>218.1924047410046</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H9" t="n">
-        <v>106.4471622989392</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I9" t="n">
-        <v>68.761749468207</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.94669922618533</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S9" t="n">
-        <v>160.5508486671644</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T9" t="n">
-        <v>197.7490015828257</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7598506100387</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I10" t="n">
-        <v>140.3401468734729</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J10" t="n">
-        <v>57.83529218611377</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.08791033046781</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R10" t="n">
-        <v>154.7009843173077</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S10" t="n">
-        <v>215.2600989804104</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T10" t="n">
-        <v>225.7987169418005</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D11" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H11" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>35.79512724079275</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T11" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>18.86898237295603</v>
       </c>
       <c r="V11" t="n">
-        <v>64.03837846862871</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>109.4959605796588</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I12" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>76.69872303604726</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>40.90206411793018</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>193.7746433374527</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E14" t="n">
-        <v>149.6511845669353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23554,7 +23554,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>95.47307296480832</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.20554852539419</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>31.53907881136713</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.8836670385466</v>
@@ -23676,7 +23676,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U16" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V16" t="n">
-        <v>159.9393524361867</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>50.6514577950237</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>147.2845305231441</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>7.214262016418331</v>
+        <v>412.5045232448704</v>
       </c>
       <c r="H17" t="n">
-        <v>309.1816775839438</v>
+        <v>310.8175902204192</v>
       </c>
       <c r="I17" t="n">
-        <v>50.58136893604567</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.6157414750359</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1474152774909</v>
+        <v>210.8466665960478</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1090167586803</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>10.75926606568578</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.5428573899664</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>79.99259137135567</v>
       </c>
       <c r="I18" t="n">
-        <v>34.90648538615156</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.895091793627785</v>
+        <v>7.201552068168482</v>
       </c>
       <c r="S18" t="n">
-        <v>142.2862571528326</v>
+        <v>143.8737719354463</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.89242816902436</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>153.9268163560073</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,19 +23901,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>150.4303998073687</v>
+        <v>151.0674582101558</v>
       </c>
       <c r="I19" t="n">
-        <v>115.5489165511494</v>
+        <v>117.7037112305151</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.617771026717691</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>117.6340480494082</v>
+        <v>120.8558178450983</v>
       </c>
       <c r="S19" t="n">
-        <v>200.8934760880603</v>
+        <v>202.1421887241982</v>
       </c>
       <c r="T19" t="n">
-        <v>222.2763837339734</v>
+        <v>222.5825365451288</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2505648515996</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>166.2797775384225</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>6.301057158224296</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>69.33461916168176</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.3447856506826</v>
+        <v>53.53268863208712</v>
       </c>
       <c r="H20" t="n">
-        <v>309.1816775839438</v>
+        <v>310.8175902204192</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.6157414750358</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1217957662153</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7608733896973</v>
+        <v>135.8463405373799</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.77586998176255</v>
       </c>
       <c r="I21" t="n">
-        <v>34.90648538615155</v>
+        <v>37.849104286628</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.89509179362777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>67.3325801982671</v>
+        <v>143.8737719354463</v>
       </c>
       <c r="T21" t="n">
-        <v>193.7855636603532</v>
+        <v>114.5158545777856</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>144.1382134646953</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6641439831952</v>
+        <v>166.7357967687847</v>
       </c>
       <c r="H22" t="n">
-        <v>150.4303998073687</v>
+        <v>151.0674582101558</v>
       </c>
       <c r="I22" t="n">
-        <v>115.5489165511494</v>
+        <v>117.7037112305151</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.617771026717691</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>117.6340480494082</v>
+        <v>120.8558178450983</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.2763837339734</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2505648515996</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>159.4354789078955</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>169.8305459720328</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>302.7779428951828</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>13.72645506417464</v>
       </c>
       <c r="G25" t="n">
-        <v>62.96786740298138</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
         <v>104.7965952039006</v>
@@ -24414,7 +24414,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>144.4395470865696</v>
+        <v>342.462633031933</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
@@ -24499,10 +24499,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>84.00645639374267</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>153.9756367276253</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>118.5444197865536</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>297.5245185954711</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>55.73584717546848</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,25 +24888,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>212.523561475017</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>117.3298145812404</v>
       </c>
       <c r="E32" t="n">
-        <v>287.0568409819809</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>14.75683741433892</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>185.5403850962592</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>2.193198944578853</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.7300520167304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>63.97529260034126</v>
+        <v>60.80382475786379</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25362,7 +25362,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.5614394487897</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247047</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>157.5432064472244</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3917546538979</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>131.2947330550874</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25636,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>390.4489274433762</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.53197388332304</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>169.7552208062158</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>197.6930812952168</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>387.1646134256455</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>170.767789890266</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>26.10070717982882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,16 +26073,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>115.2459207102716</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>334419.4589606973</v>
+        <v>333368.386845808</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>334419.4589606973</v>
+        <v>332423.2055470955</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>333368.386845808</v>
+        <v>332423.2055470955</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551247.8359022401</v>
+        <v>551247.8359022402</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>551247.8359022401</v>
+        <v>551247.8359022402</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654635.5444586787</v>
+        <v>620889.7705915999</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654635.5444586788</v>
+        <v>620889.7705915999</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825274.4613913507</v>
+        <v>825274.4613913506</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>825274.4613913507</v>
+        <v>825274.4613913508</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>825274.461391351</v>
+        <v>825274.4613913507</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>825274.461391351</v>
+        <v>825274.4613913511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>825274.4613913506</v>
+        <v>825274.4613913511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825274.461391351</v>
+        <v>825274.4613913506</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825274.4613913508</v>
+        <v>825274.461391351</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825274.4613913507</v>
+        <v>825274.4613913506</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99917.42429591442</v>
+        <v>100432.222393555</v>
       </c>
       <c r="C2" t="n">
-        <v>99917.4242959144</v>
+        <v>100952.6603979177</v>
       </c>
       <c r="D2" t="n">
-        <v>100432.222393555</v>
+        <v>100952.6603979177</v>
       </c>
       <c r="E2" t="n">
         <v>173371.5940175455</v>
@@ -26328,25 +26328,25 @@
         <v>173371.5940175455</v>
       </c>
       <c r="G2" t="n">
-        <v>206133.067500708</v>
+        <v>195439.7151222467</v>
       </c>
       <c r="H2" t="n">
-        <v>206133.067500708</v>
+        <v>195439.7151222467</v>
       </c>
       <c r="I2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="J2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201622</v>
@@ -26355,7 +26355,7 @@
         <v>260075.8859201623</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>251306.7941829319</v>
+        <v>268497.8903749795</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16423.34399047571</v>
       </c>
       <c r="D3" t="n">
-        <v>15278.63930251696</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>348215.28910833</v>
+        <v>333725.3540631837</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>133407.9591873267</v>
+        <v>89863.32156242539</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211863.0757694576</v>
+        <v>254047.9161916897</v>
       </c>
       <c r="J3" t="n">
-        <v>1.682089987298241e-10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65718.55375189529</v>
+        <v>65718.55375189534</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34032.05670686688</v>
+        <v>22923.92203515848</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22912.19497931681</v>
+        <v>20256.16408943028</v>
       </c>
       <c r="C4" t="n">
-        <v>22912.19497931681</v>
+        <v>17688.44077711661</v>
       </c>
       <c r="D4" t="n">
-        <v>20256.16408943028</v>
+        <v>17688.44077711662</v>
       </c>
       <c r="E4" t="n">
+        <v>10965.07562050204</v>
+      </c>
+      <c r="F4" t="n">
         <v>10965.07562050203</v>
       </c>
-      <c r="F4" t="n">
-        <v>10965.07562050204</v>
-      </c>
       <c r="G4" t="n">
-        <v>12323.83606559241</v>
+        <v>11880.32294135038</v>
       </c>
       <c r="H4" t="n">
-        <v>12323.83606559241</v>
+        <v>11880.32294135038</v>
       </c>
       <c r="I4" t="n">
+        <v>14971.45584523218</v>
+      </c>
+      <c r="J4" t="n">
         <v>14971.45584523219</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>14971.45584523217</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14971.45584523219</v>
       </c>
       <c r="L4" t="n">
         <v>14971.45584523219</v>
       </c>
       <c r="M4" t="n">
+        <v>14971.45584523219</v>
+      </c>
+      <c r="N4" t="n">
         <v>14971.45584523218</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14971.45584523219</v>
       </c>
       <c r="O4" t="n">
         <v>14971.45584523219</v>
       </c>
       <c r="P4" t="n">
-        <v>14971.45584523218</v>
+        <v>14971.45584523217</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39312.96135688073</v>
+        <v>39701.87879260092</v>
       </c>
       <c r="C5" t="n">
-        <v>39312.96135688073</v>
+        <v>40095.05704060869</v>
       </c>
       <c r="D5" t="n">
-        <v>39701.87879260092</v>
+        <v>40095.05704060869</v>
       </c>
       <c r="E5" t="n">
         <v>29420.2032042662</v>
@@ -26484,34 +26484,34 @@
         <v>29420.2032042662</v>
       </c>
       <c r="G5" t="n">
-        <v>40672.16930992262</v>
+        <v>36999.50397853492</v>
       </c>
       <c r="H5" t="n">
-        <v>40672.16930992262</v>
+        <v>36999.50397853492</v>
       </c>
       <c r="I5" t="n">
+        <v>59310.17243984472</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="K5" t="n">
         <v>59310.17243984471</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59310.17243984471</v>
-      </c>
-      <c r="K5" t="n">
-        <v>59310.17243984473</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
+        <v>59310.17243984473</v>
+      </c>
+      <c r="N5" t="n">
         <v>59310.17243984472</v>
-      </c>
-      <c r="N5" t="n">
-        <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984473</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-228263.0749230036</v>
+        <v>-229485.5375093307</v>
       </c>
       <c r="C6" t="n">
-        <v>23043.71925992828</v>
+        <v>25287.05334386723</v>
       </c>
       <c r="D6" t="n">
-        <v>10577.27375025597</v>
+        <v>41710.39733434294</v>
       </c>
       <c r="E6" t="n">
-        <v>-225556.6891023043</v>
+        <v>-201771.8103890815</v>
       </c>
       <c r="F6" t="n">
-        <v>122658.6000060258</v>
+        <v>131953.5436741019</v>
       </c>
       <c r="G6" t="n">
-        <v>11328.5332501244</v>
+        <v>55793.60759834736</v>
       </c>
       <c r="H6" t="n">
-        <v>144736.4924374511</v>
+        <v>145656.9291607727</v>
       </c>
       <c r="I6" t="n">
-        <v>-31296.28085626398</v>
+        <v>-68776.4048287936</v>
       </c>
       <c r="J6" t="n">
-        <v>180566.7949131935</v>
+        <v>185271.5113628961</v>
       </c>
       <c r="K6" t="n">
-        <v>180566.7949131937</v>
+        <v>185271.5113628961</v>
       </c>
       <c r="L6" t="n">
-        <v>180566.7949131938</v>
+        <v>185271.5113628962</v>
       </c>
       <c r="M6" t="n">
-        <v>114848.2411612983</v>
+        <v>119552.9576110009</v>
       </c>
       <c r="N6" t="n">
-        <v>180566.7949131937</v>
+        <v>185271.5113628962</v>
       </c>
       <c r="O6" t="n">
-        <v>146534.7382063268</v>
+        <v>162347.5893277377</v>
       </c>
       <c r="P6" t="n">
-        <v>180566.7949131937</v>
+        <v>185271.5113628961</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>260.7963925174648</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="D3" t="n">
-        <v>278.6366418624276</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="E3" t="n">
+        <v>614.0550137694781</v>
+      </c>
+      <c r="F3" t="n">
         <v>614.0550137694784</v>
       </c>
-      <c r="F3" t="n">
-        <v>614.0550137694783</v>
-      </c>
       <c r="G3" t="n">
-        <v>735.7905262825391</v>
+        <v>696.0557997283349</v>
       </c>
       <c r="H3" t="n">
-        <v>735.7905262825392</v>
+        <v>696.0557997283349</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="J3" t="n">
         <v>934.0648921175393</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="G4" t="n">
-        <v>405.1305236342643</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="H4" t="n">
-        <v>405.1305236342643</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="I4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="M4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="N4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="N4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000391</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.03569944989766</v>
       </c>
       <c r="D3" t="n">
-        <v>17.84024934496279</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>335.4183719070508</v>
+        <v>317.3826724571529</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>121.7355125130608</v>
+        <v>82.00078595885657</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>198.2743658349999</v>
+        <v>238.0090923892044</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.4166436327581</v>
+        <v>95.25795461127703</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>235.4543084657744</v>
+        <v>281.6129974872556</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>141.4166436327581</v>
+        <v>95.25795461127726</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>141.4166436327581</v>
+        <v>95.25795461127703</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I2" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J2" t="n">
-        <v>88.98399123388617</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K2" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L2" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M2" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N2" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O2" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P2" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R2" t="n">
-        <v>65.8582970511566</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S2" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T2" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H3" t="n">
-        <v>5.417676003051488</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I3" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J3" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K3" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L3" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -31144,25 +31144,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R3" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41955398407041</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T3" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H4" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I4" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J4" t="n">
-        <v>33.24940237062826</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K4" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L4" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M4" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N4" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O4" t="n">
-        <v>66.47315263707451</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P4" t="n">
-        <v>56.87926567298936</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.38025527013719</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R4" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S4" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T4" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.048427708612923</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H5" t="n">
-        <v>10.7372102708321</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I5" t="n">
-        <v>40.41950923629976</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J5" t="n">
-        <v>88.98399123388617</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K5" t="n">
-        <v>133.3639361394712</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L5" t="n">
-        <v>165.449755626934</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M5" t="n">
-        <v>184.0947318899791</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N5" t="n">
-        <v>187.0735771170756</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O5" t="n">
-        <v>176.6482740895558</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P5" t="n">
-        <v>150.7652150331742</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.2183977184739</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R5" t="n">
-        <v>65.8582970511566</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S5" t="n">
-        <v>23.89104641001701</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T5" t="n">
-        <v>4.589492294453073</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H6" t="n">
-        <v>5.417676003051488</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I6" t="n">
-        <v>19.31369510624622</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J6" t="n">
-        <v>52.99825557753501</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K6" t="n">
-        <v>90.58246021995758</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L6" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -31381,25 +31381,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>107.1184277115602</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.60583214932356</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R6" t="n">
-        <v>34.82862011770975</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S6" t="n">
-        <v>10.41955398407041</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T6" t="n">
-        <v>2.261055516259907</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H7" t="n">
-        <v>4.181292981673455</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I7" t="n">
-        <v>14.14286010570121</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J7" t="n">
-        <v>33.24940237062826</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K7" t="n">
-        <v>54.63898190775737</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L7" t="n">
-        <v>69.91908529886263</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M7" t="n">
-        <v>73.71987206850237</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N7" t="n">
-        <v>71.96697828272931</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O7" t="n">
-        <v>66.47315263707451</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P7" t="n">
-        <v>56.87926567298936</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.38025527013719</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R7" t="n">
-        <v>21.14588454739968</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S7" t="n">
-        <v>8.195847286163604</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T7" t="n">
-        <v>2.009414827593581</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.120147303969557</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H8" t="n">
-        <v>11.47170857677823</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I8" t="n">
-        <v>43.1844789362864</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J8" t="n">
-        <v>95.07110224028631</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K8" t="n">
-        <v>142.4869376173177</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L8" t="n">
-        <v>176.7676456711761</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M8" t="n">
-        <v>196.6880652881447</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N8" t="n">
-        <v>199.8706838155482</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O8" t="n">
-        <v>188.7322190617009</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P8" t="n">
-        <v>161.0785824949524</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.9633071715426</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R8" t="n">
-        <v>70.36345308297777</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S8" t="n">
-        <v>25.52535668920632</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T8" t="n">
-        <v>4.90344482312674</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H9" t="n">
-        <v>5.788281937557223</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I9" t="n">
-        <v>20.63488338320808</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J9" t="n">
-        <v>56.62369719206183</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K9" t="n">
-        <v>96.77891739102829</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L9" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -31621,22 +31621,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>114.446057673645</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.50415872418957</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R9" t="n">
-        <v>37.2111349264578</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S9" t="n">
-        <v>11.1323224366734</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T9" t="n">
-        <v>2.415727111995952</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H10" t="n">
-        <v>4.467321897400891</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I10" t="n">
-        <v>15.11032805378542</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J10" t="n">
-        <v>35.52388793055901</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K10" t="n">
-        <v>58.37666037707908</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L10" t="n">
-        <v>74.70202690193675</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M10" t="n">
-        <v>78.76281337104653</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N10" t="n">
-        <v>76.89000971262699</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O10" t="n">
-        <v>71.02036897831189</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P10" t="n">
-        <v>60.77019480881533</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.07413292122657</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R10" t="n">
-        <v>22.59240705986175</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S10" t="n">
-        <v>8.756499056561861</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T10" t="n">
-        <v>2.146872486480999</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H11" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O11" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R11" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T11" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H12" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q12" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H13" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M13" t="n">
         <v>173.576239384051</v>
@@ -31934,25 +31934,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O13" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,31 +31989,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H14" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I14" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J14" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K14" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L14" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M14" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N14" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O14" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P14" t="n">
         <v>354.9824263269073</v>
@@ -32025,7 +32025,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S14" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T14" t="n">
         <v>10.8061339609081</v>
@@ -32074,16 +32074,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I15" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J15" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K15" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M15" t="n">
         <v>334.6599825043656</v>
@@ -32092,25 +32092,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O15" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P15" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q15" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R15" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S15" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T15" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,16 +32150,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H16" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I16" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J16" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K16" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L16" t="n">
         <v>164.6271425440336</v>
@@ -32171,25 +32171,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O16" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P16" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R16" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S16" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T16" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.957951864452416</v>
+        <v>2.798214270264661</v>
       </c>
       <c r="H17" t="n">
-        <v>30.29312453182331</v>
+        <v>28.65721189534797</v>
       </c>
       <c r="I17" t="n">
-        <v>114.0364392543019</v>
+        <v>107.8781556543784</v>
       </c>
       <c r="J17" t="n">
-        <v>251.0524670555685</v>
+        <v>237.4949384208755</v>
       </c>
       <c r="K17" t="n">
-        <v>376.2625694778393</v>
+        <v>355.9433484811786</v>
       </c>
       <c r="L17" t="n">
-        <v>466.786988849575</v>
+        <v>441.5791984547909</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3904653190307</v>
+        <v>491.34194148361</v>
       </c>
       <c r="N17" t="n">
-        <v>527.7947460539061</v>
+        <v>499.2923677789995</v>
       </c>
       <c r="O17" t="n">
-        <v>498.3816122017574</v>
+        <v>471.4676246290553</v>
       </c>
       <c r="P17" t="n">
-        <v>425.3571755480883</v>
+        <v>402.3867098318964</v>
       </c>
       <c r="Q17" t="n">
-        <v>319.4255244023861</v>
+        <v>302.1756612780431</v>
       </c>
       <c r="R17" t="n">
-        <v>185.8074438054093</v>
+        <v>175.7733271545127</v>
       </c>
       <c r="S17" t="n">
-        <v>67.40432811120949</v>
+        <v>63.76430768365603</v>
       </c>
       <c r="T17" t="n">
-        <v>12.94843428664046</v>
+        <v>12.24918296808356</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2366361491561932</v>
+        <v>0.2238571416211728</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.582643773513386</v>
+        <v>1.497176625830758</v>
       </c>
       <c r="H18" t="n">
-        <v>15.28500697051086</v>
+        <v>14.4595742547339</v>
       </c>
       <c r="I18" t="n">
-        <v>54.49014746526352</v>
+        <v>51.54752856478708</v>
       </c>
       <c r="J18" t="n">
-        <v>149.5251294967186</v>
+        <v>141.4503583202648</v>
       </c>
       <c r="K18" t="n">
-        <v>255.5622623221155</v>
+        <v>241.7611922509255</v>
       </c>
       <c r="L18" t="n">
-        <v>343.6350000341236</v>
+        <v>325.0777581655776</v>
       </c>
       <c r="M18" t="n">
-        <v>401.0058368239838</v>
+        <v>379.3504108519425</v>
       </c>
       <c r="N18" t="n">
-        <v>411.6192680946065</v>
+        <v>389.3906874348164</v>
       </c>
       <c r="O18" t="n">
-        <v>376.5512139551783</v>
+        <v>356.216405357198</v>
       </c>
       <c r="P18" t="n">
-        <v>302.2155465404641</v>
+        <v>285.895069892191</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.0230894049719</v>
+        <v>191.1132829744666</v>
       </c>
       <c r="R18" t="n">
-        <v>98.26274235901535</v>
+        <v>92.95628208447465</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3969139510052</v>
+        <v>27.80939916839148</v>
       </c>
       <c r="T18" t="n">
-        <v>6.379165034468426</v>
+        <v>6.034672452361694</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1041213008890386</v>
+        <v>0.09849846222570782</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.326835375263595</v>
+        <v>1.255182589674047</v>
       </c>
       <c r="H19" t="n">
-        <v>11.79677270007088</v>
+        <v>11.1597142972838</v>
       </c>
       <c r="I19" t="n">
-        <v>39.90155837610885</v>
+        <v>37.74676369674315</v>
       </c>
       <c r="J19" t="n">
-        <v>93.80726103113615</v>
+        <v>88.74140908995508</v>
       </c>
       <c r="K19" t="n">
-        <v>154.1541463260795</v>
+        <v>145.8293954184937</v>
       </c>
       <c r="L19" t="n">
-        <v>197.2642338823712</v>
+        <v>186.6114188320851</v>
       </c>
       <c r="M19" t="n">
-        <v>207.987476142456</v>
+        <v>196.7555763068144</v>
       </c>
       <c r="N19" t="n">
-        <v>203.0419988346555</v>
+        <v>192.0771684725749</v>
       </c>
       <c r="O19" t="n">
-        <v>187.5421492236216</v>
+        <v>177.4143536750189</v>
       </c>
       <c r="P19" t="n">
-        <v>160.4747075682442</v>
+        <v>151.8086288456682</v>
       </c>
       <c r="Q19" t="n">
-        <v>111.1043694686634</v>
+        <v>105.1044257589786</v>
       </c>
       <c r="R19" t="n">
-        <v>59.65934332776126</v>
+        <v>56.43757353207121</v>
       </c>
       <c r="S19" t="n">
-        <v>23.12312194891192</v>
+        <v>21.87440931277406</v>
       </c>
       <c r="T19" t="n">
-        <v>5.669205694308086</v>
+        <v>5.363052883152743</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07237283865074162</v>
+        <v>0.0684645048913117</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.957951864452417</v>
+        <v>2.798214270264661</v>
       </c>
       <c r="H20" t="n">
-        <v>30.29312453182332</v>
+        <v>28.65721189534797</v>
       </c>
       <c r="I20" t="n">
-        <v>114.0364392543019</v>
+        <v>107.8781556543784</v>
       </c>
       <c r="J20" t="n">
-        <v>251.0524670555685</v>
+        <v>237.4949384208755</v>
       </c>
       <c r="K20" t="n">
-        <v>376.2625694778394</v>
+        <v>355.9433484811786</v>
       </c>
       <c r="L20" t="n">
-        <v>466.7869888495752</v>
+        <v>441.5791984547909</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3904653190308</v>
+        <v>491.34194148361</v>
       </c>
       <c r="N20" t="n">
-        <v>527.7947460539062</v>
+        <v>499.2923677789995</v>
       </c>
       <c r="O20" t="n">
-        <v>498.3816122017575</v>
+        <v>471.4676246290553</v>
       </c>
       <c r="P20" t="n">
-        <v>425.3571755480884</v>
+        <v>402.3867098318964</v>
       </c>
       <c r="Q20" t="n">
-        <v>319.4255244023861</v>
+        <v>302.1756612780431</v>
       </c>
       <c r="R20" t="n">
-        <v>185.8074438054093</v>
+        <v>175.7733271545127</v>
       </c>
       <c r="S20" t="n">
-        <v>67.40432811120951</v>
+        <v>63.76430768365603</v>
       </c>
       <c r="T20" t="n">
-        <v>12.94843428664046</v>
+        <v>12.24918296808356</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2366361491561933</v>
+        <v>0.2238571416211728</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.582643773513386</v>
+        <v>1.497176625830758</v>
       </c>
       <c r="H21" t="n">
-        <v>15.28500697051086</v>
+        <v>14.4595742547339</v>
       </c>
       <c r="I21" t="n">
-        <v>54.49014746526353</v>
+        <v>51.54752856478708</v>
       </c>
       <c r="J21" t="n">
-        <v>149.5251294967187</v>
+        <v>141.4503583202648</v>
       </c>
       <c r="K21" t="n">
-        <v>255.5622623221155</v>
+        <v>241.7611922509255</v>
       </c>
       <c r="L21" t="n">
-        <v>343.6350000341237</v>
+        <v>325.0777581655776</v>
       </c>
       <c r="M21" t="n">
-        <v>401.0058368239838</v>
+        <v>379.3504108519425</v>
       </c>
       <c r="N21" t="n">
-        <v>411.6192680946065</v>
+        <v>389.3906874348164</v>
       </c>
       <c r="O21" t="n">
-        <v>376.5512139551784</v>
+        <v>356.216405357198</v>
       </c>
       <c r="P21" t="n">
-        <v>302.2155465404641</v>
+        <v>285.895069892191</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.0230894049719</v>
+        <v>191.1132829744666</v>
       </c>
       <c r="R21" t="n">
-        <v>98.26274235901536</v>
+        <v>92.95628208447465</v>
       </c>
       <c r="S21" t="n">
-        <v>29.3969139510052</v>
+        <v>27.80939916839148</v>
       </c>
       <c r="T21" t="n">
-        <v>6.379165034468427</v>
+        <v>6.034672452361694</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1041213008890386</v>
+        <v>0.09849846222570782</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.326835375263595</v>
+        <v>1.255182589674047</v>
       </c>
       <c r="H22" t="n">
-        <v>11.79677270007088</v>
+        <v>11.1597142972838</v>
       </c>
       <c r="I22" t="n">
-        <v>39.90155837610885</v>
+        <v>37.74676369674315</v>
       </c>
       <c r="J22" t="n">
-        <v>93.80726103113616</v>
+        <v>88.74140908995508</v>
       </c>
       <c r="K22" t="n">
-        <v>154.1541463260795</v>
+        <v>145.8293954184937</v>
       </c>
       <c r="L22" t="n">
-        <v>197.2642338823713</v>
+        <v>186.6114188320851</v>
       </c>
       <c r="M22" t="n">
-        <v>207.9874761424561</v>
+        <v>196.7555763068144</v>
       </c>
       <c r="N22" t="n">
-        <v>203.0419988346556</v>
+        <v>192.0771684725749</v>
       </c>
       <c r="O22" t="n">
-        <v>187.5421492236217</v>
+        <v>177.4143536750189</v>
       </c>
       <c r="P22" t="n">
-        <v>160.4747075682442</v>
+        <v>151.8086288456682</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.1043694686634</v>
+        <v>105.1044257589786</v>
       </c>
       <c r="R22" t="n">
-        <v>59.65934332776127</v>
+        <v>56.43757353207121</v>
       </c>
       <c r="S22" t="n">
-        <v>23.12312194891192</v>
+        <v>21.87440931277406</v>
       </c>
       <c r="T22" t="n">
-        <v>5.669205694308086</v>
+        <v>5.363052883152743</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07237283865074164</v>
+        <v>0.0684645048913117</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H23" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J23" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L23" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O23" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q23" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R23" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S23" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T23" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
         <v>0.3004027793744847</v>
@@ -32782,10 +32782,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H24" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I24" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J24" t="n">
         <v>189.8178475575841</v>
@@ -32794,34 +32794,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M24" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N24" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P24" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q24" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R24" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
@@ -32879,10 +32879,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N25" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O25" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P25" t="n">
         <v>203.7180217169137</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S25" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>592.5726450767381</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L12" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,10 +35585,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K14" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L14" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M14" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N14" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O14" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P14" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.3216690912726</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L15" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M15" t="n">
         <v>192.5259485823473</v>
@@ -35746,7 +35746,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>70.0065625288822</v>
+        <v>56.4490338941892</v>
       </c>
       <c r="K17" t="n">
-        <v>156.1727184328588</v>
+        <v>135.8534974361981</v>
       </c>
       <c r="L17" t="n">
-        <v>231.0205738795878</v>
+        <v>205.8127834848036</v>
       </c>
       <c r="M17" t="n">
-        <v>289.044232091758</v>
+        <v>260.9957082563373</v>
       </c>
       <c r="N17" t="n">
-        <v>298.3816824573152</v>
+        <v>269.8793041824086</v>
       </c>
       <c r="O17" t="n">
-        <v>268.2834007800707</v>
+        <v>241.3694132073685</v>
       </c>
       <c r="P17" t="n">
-        <v>194.1241797928188</v>
+        <v>171.1537140766268</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.1198345279366</v>
+        <v>79.86997140359361</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>22.68750283005195</v>
+        <v>14.61273165359808</v>
       </c>
       <c r="K18" t="n">
-        <v>372.99827853787</v>
+        <v>135.8611751146778</v>
       </c>
       <c r="L18" t="n">
-        <v>205.0806202542494</v>
+        <v>358.9718346127833</v>
       </c>
       <c r="M18" t="n">
-        <v>258.8718029019655</v>
+        <v>237.2163769299242</v>
       </c>
       <c r="N18" t="n">
-        <v>280.2775560112732</v>
+        <v>258.048975351483</v>
       </c>
       <c r="O18" t="n">
-        <v>233.9549695107339</v>
+        <v>213.6201609127535</v>
       </c>
       <c r="P18" t="n">
-        <v>168.2411391261338</v>
+        <v>151.9206624778608</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.04131531895038</v>
+        <v>51.1315088884451</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4480809144633753</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>131.8846545001966</v>
+        <v>123.5599035926109</v>
       </c>
       <c r="L19" t="n">
-        <v>224.8542591426874</v>
+        <v>214.2014440924012</v>
       </c>
       <c r="M19" t="n">
-        <v>247.5713531042966</v>
+        <v>236.3394532686549</v>
       </c>
       <c r="N19" t="n">
-        <v>247.1741712138841</v>
+        <v>236.2093408518035</v>
       </c>
       <c r="O19" t="n">
-        <v>212.1272771376613</v>
+        <v>201.9994815890586</v>
       </c>
       <c r="P19" t="n">
-        <v>157.7532668331377</v>
+        <v>149.0871881105617</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.94232621696901</v>
+        <v>18.94238250728418</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>70.00656252888223</v>
+        <v>56.4490338941892</v>
       </c>
       <c r="K20" t="n">
-        <v>156.1727184328589</v>
+        <v>135.8534974361981</v>
       </c>
       <c r="L20" t="n">
-        <v>231.0205738795879</v>
+        <v>205.8127834848036</v>
       </c>
       <c r="M20" t="n">
-        <v>289.0442320917581</v>
+        <v>260.9957082563373</v>
       </c>
       <c r="N20" t="n">
-        <v>298.3816824573153</v>
+        <v>269.8793041824086</v>
       </c>
       <c r="O20" t="n">
-        <v>268.2834007800708</v>
+        <v>241.3694132073685</v>
       </c>
       <c r="P20" t="n">
-        <v>194.1241797928188</v>
+        <v>171.1537140766268</v>
       </c>
       <c r="Q20" t="n">
-        <v>97.11983452793666</v>
+        <v>79.86997140359361</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>67.8876702843162</v>
+        <v>14.61273165359808</v>
       </c>
       <c r="K21" t="n">
-        <v>117.7208233477565</v>
+        <v>103.9197532765666</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0806202542495</v>
+        <v>186.5233783857034</v>
       </c>
       <c r="M21" t="n">
-        <v>258.8718029019655</v>
+        <v>237.2163769299242</v>
       </c>
       <c r="N21" t="n">
-        <v>280.2775560112732</v>
+        <v>258.048975351483</v>
       </c>
       <c r="O21" t="n">
-        <v>233.9549695107339</v>
+        <v>213.6201609127535</v>
       </c>
       <c r="P21" t="n">
-        <v>168.2411391261339</v>
+        <v>151.9206624778608</v>
       </c>
       <c r="Q21" t="n">
-        <v>272.1186030547995</v>
+        <v>255.521386953636</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4480809144633895</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>131.8846545001966</v>
+        <v>123.5599035926109</v>
       </c>
       <c r="L22" t="n">
-        <v>224.8542591426874</v>
+        <v>214.2014440924012</v>
       </c>
       <c r="M22" t="n">
-        <v>247.5713531042967</v>
+        <v>236.3394532686549</v>
       </c>
       <c r="N22" t="n">
-        <v>247.1741712138842</v>
+        <v>236.2093408518035</v>
       </c>
       <c r="O22" t="n">
-        <v>212.1272771376614</v>
+        <v>201.9994815890586</v>
       </c>
       <c r="P22" t="n">
-        <v>157.7532668331377</v>
+        <v>149.0871881105617</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.94232621696904</v>
+        <v>18.94238250728418</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L23" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O23" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q23" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K25" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L25" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N25" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O25" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P25" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q25" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313208</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N27" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O27" t="n">
-        <v>440.5919280920377</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L30" t="n">
-        <v>412.035869539186</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820406</v>
@@ -36931,10 +36931,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>355.33095442155</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378502</v>
+        <v>538.1269048795948</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820406</v>
@@ -37168,7 +37168,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
         <v>24.58388860977094</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>117.9333660065827</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313208</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>117.9333660065836</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0527332560634</v>
+        <v>271.5293621272328</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>421.8844773977067</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N42" t="n">
         <v>391.197099592874</v>
@@ -37876,10 +37876,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>356.8062301067509</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313199</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38107,13 +38107,13 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>391.197099592874</v>
+        <v>392.1527130811802</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q45" t="n">
         <v>326.5580100667037</v>
